--- a/Data.xlsx
+++ b/Data.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Name</t>
+  </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Date&amp;Time</t>
   </si>
 </sst>
 </file>
@@ -348,25 +354,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>1137</v>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>1603</v>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>1907</v>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,35 +1,110 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edidi\Documents\GitHub\Licenta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD612BF7-1398-46BF-A815-B0130663111D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="26">
   <si>
-    <t>Name</t>
+    <t>Lot0</t>
   </si>
   <si>
-    <t>Status</t>
+    <t>OCUPAT</t>
   </si>
   <si>
-    <t>Date&amp;Time</t>
+    <t>Lot1</t>
+  </si>
+  <si>
+    <t>Lot2</t>
+  </si>
+  <si>
+    <t>Lot3</t>
+  </si>
+  <si>
+    <t>LIBER</t>
+  </si>
+  <si>
+    <t>Lot4</t>
+  </si>
+  <si>
+    <t>Lot5</t>
+  </si>
+  <si>
+    <t>Lot6</t>
+  </si>
+  <si>
+    <t>Lot7</t>
+  </si>
+  <si>
+    <t>Lot8</t>
+  </si>
+  <si>
+    <t>Lot10</t>
+  </si>
+  <si>
+    <t>Lot11</t>
+  </si>
+  <si>
+    <t>Lot12</t>
+  </si>
+  <si>
+    <t>Lot13</t>
+  </si>
+  <si>
+    <t>Lot14</t>
+  </si>
+  <si>
+    <t>Lot15</t>
+  </si>
+  <si>
+    <t>Lot16</t>
+  </si>
+  <si>
+    <t>Lot17</t>
+  </si>
+  <si>
+    <t>Lot18</t>
+  </si>
+  <si>
+    <t>Lot19</t>
+  </si>
+  <si>
+    <t>Lot20</t>
+  </si>
+  <si>
+    <t>Lot21</t>
+  </si>
+  <si>
+    <t>Lot22</t>
+  </si>
+  <si>
+    <t>Lot23</t>
+  </si>
+  <si>
+    <t>Lot24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,14 +133,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -112,7 +196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -144,9 +228,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -178,6 +280,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -353,22 +473,3548 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C321"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A309" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D313" sqref="D313"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1">
+        <v>44144.320138888892</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44144.375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44144.411111111112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44145.338888888888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44145.445138888892</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44145.604861111111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44146.643750000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44146.677777777775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44146.688888888886</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44146.696527777778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44147.343055555553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44147.439583333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44147.583333333336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44148.324999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44148.344444444447</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44148.400694444441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44148.445833333331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44151.314583333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44151.317361111112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>44151.320138888892</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>44152.438888888886</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>44152.843055555553</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>44152.84652777778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>44153.575694444444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>44153.621527777781</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>44153.685416666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>44153.736805555556</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1">
+        <v>44154.345833333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1">
+        <v>44154.390277777777</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1">
+        <v>44154.504166666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>44154.843055555553</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>44155.40902777778</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>44155.415277777778</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>44155.448611111111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>44155.78402777778</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>44155.864583333336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>44158.323611111111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>44158.443055555559</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>44158.811111111114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>44159.345833333333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1">
+        <v>44159.45208333333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1">
+        <v>44159.577777777777</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1">
+        <v>44159.584722222222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44160.527083333334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1">
+        <v>44160.551388888889</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>44160.567361111112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="1">
+        <v>44160.584027777775</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1">
+        <v>44160.861805555556</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="1">
+        <v>44161.318055555559</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>44161.498611111114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>44161.686111111114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>44161.74722222222</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>44162.366666666669</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>44162.368055555555</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1">
+        <v>44162.462500000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1">
+        <v>44162.663194444445</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>44166.478472222225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1">
+        <v>44167.347916666666</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1">
+        <v>44167.375694444447</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1">
+        <v>44167.538194444445</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1">
+        <v>44167.552777777775</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>44167.692361111112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="1">
+        <v>44168.306250000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="1">
+        <v>44168.320833333331</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="1">
+        <v>44168.435416666667</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="1">
+        <v>44168.776388888888</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="1">
+        <v>44169.339583333334</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1">
+        <v>44169.342361111114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1">
+        <v>44169.345138888886</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1">
+        <v>44169.427777777775</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1">
+        <v>44172.302777777775</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
+        <v>44172.324999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1">
+        <v>44172.388888888891</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1">
+        <v>44172.48333333333</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1">
+        <v>44173.359722222223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1">
+        <v>44173.362500000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1">
+        <v>44173.371527777781</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="1">
+        <v>44173.410416666666</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="1">
+        <v>44174.310416666667</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="1">
+        <v>44174.472222222219</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="1">
+        <v>44174.650694444441</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="1">
+        <v>44174.787499999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1">
+        <v>44174.928472222222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="1">
+        <v>44175.376388888886</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="1">
+        <v>44175.704861111109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="1">
+        <v>44175.705555555556</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1">
+        <v>44175.712500000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1">
+        <v>44175.768055555556</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1">
+        <v>44176.289583333331</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1">
+        <v>44176.347222222219</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1">
+        <v>44179.317361111112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1">
+        <v>44179.348611111112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1">
+        <v>44179.392361111109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>19</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1">
+        <v>44179.411805555559</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="1">
+        <v>44179.646527777775</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1">
+        <v>44180.400694444441</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1">
+        <v>44180.436805555553</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="1">
+        <v>44180.719444444447</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>24</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1">
+        <v>44181.275000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>25</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="1">
+        <v>44181.448611111111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="1">
+        <v>44181.553472222222</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="1">
+        <v>44181.585416666669</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="1">
+        <v>44181.591666666667</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="1">
+        <v>44181.730555555558</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1">
+        <v>44182.397222222222</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1">
+        <v>44182.595138888886</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1">
+        <v>44182.697222222225</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="1">
+        <v>44182.705555555556</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="1">
+        <v>44183.334027777775</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="1">
+        <v>44183.334027777775</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1">
+        <v>44183.347222222219</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" s="1">
+        <v>44183.726388888892</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="1">
+        <v>44186.335416666669</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="1">
+        <v>44186.394444444442</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" s="1">
+        <v>44186.513194444444</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" s="1">
+        <v>43834.322916666664</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="1">
+        <v>43834.323611111111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>18</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" s="1">
+        <v>43834.384027777778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="1">
+        <v>43834.390277777777</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>20</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="1">
+        <v>43834.563888888886</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" s="1">
+        <v>43835.343055555553</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>22</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" s="1">
+        <v>43835.525000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>23</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" s="1">
+        <v>43835.548611111109</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>24</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="1">
+        <v>43835.550694444442</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>25</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="1">
+        <v>43835.647222222222</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" s="1">
+        <v>43836.293749999997</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" s="1">
+        <v>43836.313888888886</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" s="1">
+        <v>43836.323611111111</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="1">
+        <v>43836.361111111109</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" s="1">
+        <v>43837.321527777778</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="1">
+        <v>43837.620833333334</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" s="1">
+        <v>43837.722916666666</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="1">
+        <v>43837.736111111109</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>10</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" s="1">
+        <v>43838.392361111109</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" s="1">
+        <v>43838.445833333331</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="1">
+        <v>43838.532638888886</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" s="1">
+        <v>43838.556944444441</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" s="1">
+        <v>43841.32916666667</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" s="1">
+        <v>43841.38958333333</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" s="1">
+        <v>43841.408333333333</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>16</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" s="1">
+        <v>43841.453472222223</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>17</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" s="1">
+        <v>43842.390972222223</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>18</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" s="1">
+        <v>43842.424305555556</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>19</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" s="1">
+        <v>43842.427083333336</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>20</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" s="1">
+        <v>43842.432638888888</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>21</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" s="1">
+        <v>43843.415277777778</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>22</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147" s="1">
+        <v>43843.495833333334</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>23</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" s="1">
+        <v>43843.496527777781</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>24</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" s="1">
+        <v>43843.632638888892</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>25</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" s="1">
+        <v>43843.686805555553</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" s="1">
+        <v>43843.746527777781</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>2</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" s="1">
+        <v>43844.535416666666</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>3</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" s="1">
+        <v>43844.536111111112</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" s="1">
+        <v>43844.55972222222</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" s="1">
+        <v>43844.724999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" s="1">
+        <v>43845.571527777778</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" s="1">
+        <v>43848.296527777777</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>9</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" s="1">
+        <v>43848.302083333336</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" s="1">
+        <v>43848.330555555556</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>11</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" s="1">
+        <v>43848.4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" s="1">
+        <v>43848.564583333333</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" s="1">
+        <v>43848.636111111111</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" s="1">
+        <v>43849.303472222222</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>14</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" s="1">
+        <v>43849.304166666669</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>15</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" s="1">
+        <v>43849.402083333334</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>16</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" s="1">
+        <v>43849.526388888888</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>17</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="1">
+        <v>43849.56527777778</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>18</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" s="1">
+        <v>43849.654166666667</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>19</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" s="1">
+        <v>43850.294444444444</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>20</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" s="1">
+        <v>43850.296527777777</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>21</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" s="1">
+        <v>43850.332638888889</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>22</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" s="1">
+        <v>43850.482638888891</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>23</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" s="1">
+        <v>43850.699305555558</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>24</v>
+      </c>
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" s="1">
+        <v>43851.318749999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>25</v>
+      </c>
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" s="1">
+        <v>43851.424305555556</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" s="1">
+        <v>43851.712500000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>2</v>
+      </c>
+      <c r="B177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" s="1">
+        <v>43851.783333333333</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>3</v>
+      </c>
+      <c r="B178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" s="1">
+        <v>43852.34097222222</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1</v>
+      </c>
+      <c r="C179" s="1">
+        <v>43852.404861111114</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>6</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" s="1">
+        <v>43852.600694444445</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1</v>
+      </c>
+      <c r="C181" s="1">
+        <v>43852.635416666664</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182" s="1">
+        <v>43855.302083333336</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>9</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" s="1">
+        <v>43855.335416666669</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>10</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184" s="1">
+        <v>43855.344444444447</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>11</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" s="1">
+        <v>43855.345833333333</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>12</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" s="1">
+        <v>43855.568055555559</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>13</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187" s="1">
+        <v>43855.607638888891</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>13</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1</v>
+      </c>
+      <c r="C188" s="1">
+        <v>43856.304861111108</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>14</v>
+      </c>
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" s="1">
+        <v>43856.369444444441</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>15</v>
+      </c>
+      <c r="B190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" s="1">
+        <v>43856.525000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>16</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" s="1">
+        <v>43856.65625</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>17</v>
+      </c>
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" s="1">
+        <v>43856.6875</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>18</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" s="1">
+        <v>43857.474999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>19</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" s="1">
+        <v>43857.533333333333</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>20</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" s="1">
+        <v>43857.602083333331</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>21</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" s="1">
+        <v>43857.636805555558</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>22</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" s="1">
+        <v>43857.65347222222</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>23</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1</v>
+      </c>
+      <c r="C198" s="1">
+        <v>43858.307638888888</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>24</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" s="1">
+        <v>43858.432638888888</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>25</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1</v>
+      </c>
+      <c r="C200" s="1">
+        <v>43858.727777777778</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1</v>
+      </c>
+      <c r="C201" s="1">
+        <v>43858.894444444442</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>2</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1</v>
+      </c>
+      <c r="C202" s="1">
+        <v>43859.325694444444</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>3</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" s="1">
+        <v>43859.418749999997</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>4</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1</v>
+      </c>
+      <c r="C204" s="1">
+        <v>43859.418749999997</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>6</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205" s="1">
+        <v>43859.55972222222</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>7</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" s="1">
+        <v>43862.293055555558</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>8</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1</v>
+      </c>
+      <c r="C207" s="1">
+        <v>43862.29791666667</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1</v>
+      </c>
+      <c r="C208" s="1">
+        <v>43862.345833333333</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>10</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1</v>
+      </c>
+      <c r="C209" s="1">
+        <v>43862.35833333333</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>11</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210" s="1">
+        <v>43862.418749999997</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>12</v>
+      </c>
+      <c r="B211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" s="1">
+        <v>43862.536805555559</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>13</v>
+      </c>
+      <c r="B212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212" s="1">
+        <v>43863.429166666669</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>13</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" s="1">
+        <v>43863.454861111109</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>14</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" s="1">
+        <v>43863.742361111108</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>15</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" s="1">
+        <v>43863.907638888886</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>16</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1</v>
+      </c>
+      <c r="C216" s="1">
+        <v>43864.28402777778</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>17</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1</v>
+      </c>
+      <c r="C217" s="1">
+        <v>43864.297222222223</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>18</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1</v>
+      </c>
+      <c r="C218" s="1">
+        <v>43864.302083333336</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>19</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1</v>
+      </c>
+      <c r="C219" s="1">
+        <v>43864.527083333334</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>20</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1</v>
+      </c>
+      <c r="C220" s="1">
+        <v>43864.615277777775</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>21</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1</v>
+      </c>
+      <c r="C221" s="1">
+        <v>43864.894444444442</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>22</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1</v>
+      </c>
+      <c r="C222" s="1">
+        <v>43864.909722222219</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>23</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1</v>
+      </c>
+      <c r="C223" s="1">
+        <v>43865.332638888889</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>24</v>
+      </c>
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" s="1">
+        <v>43865.488194444442</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>25</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" s="1">
+        <v>43865.597916666666</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>0</v>
+      </c>
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226" s="1">
+        <v>43865.688888888886</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>2</v>
+      </c>
+      <c r="B227" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227" s="1">
+        <v>43865.765972222223</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>3</v>
+      </c>
+      <c r="B228" t="s">
+        <v>5</v>
+      </c>
+      <c r="C228" s="1">
+        <v>43866.325694444444</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>4</v>
+      </c>
+      <c r="B229" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229" s="1">
+        <v>43866.638194444444</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>6</v>
+      </c>
+      <c r="B230" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230" s="1">
+        <v>43866.788888888892</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>7</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1</v>
+      </c>
+      <c r="C231" s="1">
+        <v>43869.298611111109</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>8</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1</v>
+      </c>
+      <c r="C232" s="1">
+        <v>43869.302083333336</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>9</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1</v>
+      </c>
+      <c r="C233" s="1">
+        <v>43869.344444444447</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>10</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1</v>
+      </c>
+      <c r="C234" s="1">
+        <v>43869.436805555553</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>11</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1</v>
+      </c>
+      <c r="C235" s="1">
+        <v>43870.396527777775</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>12</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1</v>
+      </c>
+      <c r="C236" s="1">
+        <v>43870.405555555553</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>13</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1</v>
+      </c>
+      <c r="C237" s="1">
+        <v>43870.431250000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>13</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1</v>
+      </c>
+      <c r="C238" s="1">
+        <v>43870.517361111109</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>14</v>
+      </c>
+      <c r="B239" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239" s="1">
+        <v>43871.300694444442</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>15</v>
+      </c>
+      <c r="B240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240" s="1">
+        <v>43871.320138888892</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>16</v>
+      </c>
+      <c r="B241" t="s">
+        <v>5</v>
+      </c>
+      <c r="C241" s="1">
+        <v>43871.322222222225</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>17</v>
+      </c>
+      <c r="B242" t="s">
+        <v>5</v>
+      </c>
+      <c r="C242" s="1">
+        <v>43871.333333333336</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>18</v>
+      </c>
+      <c r="B243" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243" s="1">
+        <v>43871.401388888888</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>19</v>
+      </c>
+      <c r="B244" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244" s="1">
+        <v>43872.329861111109</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>20</v>
+      </c>
+      <c r="B245" t="s">
+        <v>5</v>
+      </c>
+      <c r="C245" s="1">
+        <v>43872.365972222222</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>21</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1</v>
+      </c>
+      <c r="C246" s="1">
+        <v>43872.613194444442</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>22</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1</v>
+      </c>
+      <c r="C247" s="1">
+        <v>43872.777083333334</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>23</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1</v>
+      </c>
+      <c r="C248" s="1">
+        <v>43873.295138888891</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>24</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1</v>
+      </c>
+      <c r="C249" s="1">
+        <v>43873.29583333333</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>25</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1</v>
+      </c>
+      <c r="C250" s="1">
+        <v>43873.3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>0</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1</v>
+      </c>
+      <c r="C251" s="1">
+        <v>43873.422222222223</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>2</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1</v>
+      </c>
+      <c r="C252" s="1">
+        <v>43876.323611111111</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>3</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1</v>
+      </c>
+      <c r="C253" s="1">
+        <v>43876.339583333334</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>4</v>
+      </c>
+      <c r="B254" t="s">
+        <v>5</v>
+      </c>
+      <c r="C254" s="1">
+        <v>43876.435416666667</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>6</v>
+      </c>
+      <c r="B255" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255" s="1">
+        <v>43876.445833333331</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>7</v>
+      </c>
+      <c r="B256" t="s">
+        <v>5</v>
+      </c>
+      <c r="C256" s="1">
+        <v>43876.834027777775</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>8</v>
+      </c>
+      <c r="B257" t="s">
+        <v>5</v>
+      </c>
+      <c r="C257" s="1">
+        <v>43877.334722222222</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>9</v>
+      </c>
+      <c r="B258" t="s">
+        <v>5</v>
+      </c>
+      <c r="C258" s="1">
+        <v>43877.340277777781</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>10</v>
+      </c>
+      <c r="B259" t="s">
+        <v>5</v>
+      </c>
+      <c r="C259" s="1">
+        <v>43877.397916666669</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>11</v>
+      </c>
+      <c r="B260" t="s">
+        <v>5</v>
+      </c>
+      <c r="C260" s="1">
+        <v>43877.415972222225</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>12</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1</v>
+      </c>
+      <c r="C261" s="1">
+        <v>43877.902777777781</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>13</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1</v>
+      </c>
+      <c r="C262" s="1">
+        <v>43878.302083333336</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>13</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1</v>
+      </c>
+      <c r="C263" s="1">
+        <v>43878.305555555555</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>14</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1</v>
+      </c>
+      <c r="C264" s="1">
+        <v>43878.397916666669</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>15</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1</v>
+      </c>
+      <c r="C265" s="1">
+        <v>43878.710416666669</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>16</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1</v>
+      </c>
+      <c r="C266" s="1">
+        <v>43878.72152777778</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>17</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1</v>
+      </c>
+      <c r="C267" s="1">
+        <v>43879.419444444444</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>18</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1</v>
+      </c>
+      <c r="C268" s="1">
+        <v>43879.73541666667</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>19</v>
+      </c>
+      <c r="B269" t="s">
+        <v>5</v>
+      </c>
+      <c r="C269" s="1">
+        <v>43879.806944444441</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>20</v>
+      </c>
+      <c r="B270" t="s">
+        <v>5</v>
+      </c>
+      <c r="C270" s="1">
+        <v>43879.869444444441</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>21</v>
+      </c>
+      <c r="B271" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271" s="1">
+        <v>43880.292361111111</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>22</v>
+      </c>
+      <c r="B272" t="s">
+        <v>5</v>
+      </c>
+      <c r="C272" s="1">
+        <v>43880.294444444444</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>23</v>
+      </c>
+      <c r="B273" t="s">
+        <v>5</v>
+      </c>
+      <c r="C273" s="1">
+        <v>43880.30972222222</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>24</v>
+      </c>
+      <c r="B274" t="s">
+        <v>5</v>
+      </c>
+      <c r="C274" s="1">
+        <v>43880.618055555555</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>25</v>
+      </c>
+      <c r="B275" t="s">
+        <v>5</v>
+      </c>
+      <c r="C275" s="1">
+        <v>43883.301388888889</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>0</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1</v>
+      </c>
+      <c r="C276" s="1">
+        <v>43883.348611111112</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>2</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1</v>
+      </c>
+      <c r="C277" s="1">
+        <v>43883.415277777778</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>3</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1</v>
+      </c>
+      <c r="C278" s="1">
+        <v>43884.299305555556</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>4</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1</v>
+      </c>
+      <c r="C279" s="1">
+        <v>43884.322916666664</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>6</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1</v>
+      </c>
+      <c r="C280" s="1">
+        <v>43884.325694444444</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>7</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1</v>
+      </c>
+      <c r="C281" s="1">
+        <v>43884.333333333336</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>8</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1</v>
+      </c>
+      <c r="C282" s="1">
+        <v>43884.541666666664</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>9</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1</v>
+      </c>
+      <c r="C283" s="1">
+        <v>43884.807638888888</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>10</v>
+      </c>
+      <c r="B284" t="s">
+        <v>5</v>
+      </c>
+      <c r="C284" s="1">
+        <v>43885.296527777777</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>11</v>
+      </c>
+      <c r="B285" t="s">
+        <v>5</v>
+      </c>
+      <c r="C285" s="1">
+        <v>43885.442361111112</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>12</v>
+      </c>
+      <c r="B286" t="s">
+        <v>5</v>
+      </c>
+      <c r="C286" s="1">
+        <v>43885.50277777778</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>13</v>
+      </c>
+      <c r="B287" t="s">
+        <v>5</v>
+      </c>
+      <c r="C287" s="1">
+        <v>43885.542361111111</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>13</v>
+      </c>
+      <c r="B288" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288" s="1">
+        <v>43885.617361111108</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>14</v>
+      </c>
+      <c r="B289" t="s">
+        <v>5</v>
+      </c>
+      <c r="C289" s="1">
+        <v>43886.295138888891</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>15</v>
+      </c>
+      <c r="B290" t="s">
+        <v>5</v>
+      </c>
+      <c r="C290" s="1">
+        <v>43886.298611111109</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>16</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1</v>
+      </c>
+      <c r="C291" s="1">
+        <v>43886.769444444442</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>17</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1</v>
+      </c>
+      <c r="C292" s="1">
+        <v>43886.808333333334</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>18</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1</v>
+      </c>
+      <c r="C293" s="1">
+        <v>43887.29583333333</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>19</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1</v>
+      </c>
+      <c r="C294" s="1">
+        <v>43887.347222222219</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>20</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1</v>
+      </c>
+      <c r="C295" s="1">
+        <v>43887.496527777781</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>21</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1</v>
+      </c>
+      <c r="C296" s="1">
+        <v>43891.344444444447</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>0</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1</v>
+      </c>
+      <c r="C297" s="1">
+        <v>43892.416666666664</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>2</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1</v>
+      </c>
+      <c r="C298" s="1">
+        <v>43892.416666666664</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>3</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1</v>
+      </c>
+      <c r="C299" s="1">
+        <v>43892.416666666664</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>4</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1</v>
+      </c>
+      <c r="C300" s="1">
+        <v>43892.416666666664</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>6</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1</v>
+      </c>
+      <c r="C301" s="1">
+        <v>43892.416666666664</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>7</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1</v>
+      </c>
+      <c r="C302" s="1">
+        <v>43892.416666666664</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>8</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1</v>
+      </c>
+      <c r="C303" s="1">
+        <v>43892.416666666664</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>9</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1</v>
+      </c>
+      <c r="C304" s="1">
+        <v>43892.416666666664</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>10</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1</v>
+      </c>
+      <c r="C305" s="1">
+        <v>43892.416666666664</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>11</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1</v>
+      </c>
+      <c r="C306" s="1">
+        <v>43892.416666666664</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>12</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1</v>
+      </c>
+      <c r="C307" s="1">
+        <v>43892.416666666664</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>13</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1</v>
+      </c>
+      <c r="C308" s="1">
+        <v>43892.416666666664</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>13</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1</v>
+      </c>
+      <c r="C309" s="1">
+        <v>43892.416666666664</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>14</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1</v>
+      </c>
+      <c r="C310" s="1">
+        <v>43892.416666666664</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>15</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1</v>
+      </c>
+      <c r="C311" s="1">
+        <v>43892.416666666664</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>16</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1</v>
+      </c>
+      <c r="C312" s="1">
+        <v>43892.416666666664</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>17</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1</v>
+      </c>
+      <c r="C313" s="1">
+        <v>43892.416666666664</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>18</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1</v>
+      </c>
+      <c r="C314" s="1">
+        <v>43892.416666666664</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>19</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1</v>
+      </c>
+      <c r="C315" s="1">
+        <v>43892.416666666664</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>20</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1</v>
+      </c>
+      <c r="C316" s="1">
+        <v>43892.416666666664</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>21</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1</v>
+      </c>
+      <c r="C317" s="1">
+        <v>43892.416666666664</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>22</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1</v>
+      </c>
+      <c r="C318" s="1">
+        <v>43892.416666666664</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>23</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1</v>
+      </c>
+      <c r="C319" s="1">
+        <v>43892.416666666664</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>24</v>
+      </c>
+      <c r="B320" t="s">
+        <v>5</v>
+      </c>
+      <c r="C320" s="1">
+        <v>43892.416666666664</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>25</v>
+      </c>
+      <c r="B321" t="s">
+        <v>5</v>
+      </c>
+      <c r="C321" s="1">
+        <v>43892.416666666664</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,64 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
-  <si>
-    <t>Lot0</t>
-  </si>
-  <si>
-    <t>LIBER</t>
-  </si>
-  <si>
-    <t>Lot1</t>
-  </si>
-  <si>
-    <t>Lot2</t>
-  </si>
-  <si>
-    <t>Lot3</t>
-  </si>
-  <si>
-    <t>OCUPAT</t>
-  </si>
-  <si>
-    <t>03-16-2021 22:38:21</t>
-  </si>
-  <si>
-    <t>Lot4</t>
-  </si>
-  <si>
-    <t>Lot5</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -77,14 +47,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" headerRowCount="1">
+  <autoFilter ref="A1:E14"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Lot"/>
+    <tableColumn id="2" name="Status"/>
+    <tableColumn id="3" name="Date&amp;Time"/>
+    <tableColumn id="4" name="BusySpaces"/>
+    <tableColumn id="5" name="FreeSpaces"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,116 +422,325 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>22</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Lot</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date&amp;Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>BusySpaces</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>FreeSpaces</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Lot0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OCUPAT</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>03-29-2021 22:01:21</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lot1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>LIBER</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lot2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LIBER</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Lot3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LIBER</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Lot4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LIBER</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lot5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>LIBER</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lot6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LIBER</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lot7</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>LIBER</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Lot8</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>LIBER</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lot9</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>LIBER</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Lot10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>LIBER</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Lot11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>LIBER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Lot12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>LIBER</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -125,14 +125,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" headerRowCount="1">
-  <autoFilter ref="A1:E14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E1" headerRowCount="1">
+  <autoFilter ref="A1:E1"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Lot"/>
-    <tableColumn id="2" name="Status"/>
-    <tableColumn id="3" name="Date&amp;Time"/>
-    <tableColumn id="4" name="BusySpaces"/>
-    <tableColumn id="5" name="FreeSpaces"/>
+    <tableColumn id="1" name="None"/>
+    <tableColumn id="2" name="None"/>
+    <tableColumn id="3" name="None"/>
+    <tableColumn id="4" name="None"/>
+    <tableColumn id="5" name="None"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -427,317 +427,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Lot</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Date&amp;Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>BusySpaces</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>FreeSpaces</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Lot0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>OCUPAT</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>03-29-2021 22:01:21</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Lot1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>LIBER</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Lot2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LIBER</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Lot3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>LIBER</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Lot4</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>LIBER</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Lot5</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>LIBER</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Lot6</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LIBER</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Lot7</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>LIBER</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Lot8</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>LIBER</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Lot9</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>LIBER</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Lot10</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>LIBER</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Lot11</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>LIBER</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Lot12</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>LIBER</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -125,14 +125,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E1" headerRowCount="1">
-  <autoFilter ref="A1:E1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E2" headerRowCount="1">
+  <autoFilter ref="A1:E2"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="None"/>
-    <tableColumn id="2" name="None"/>
-    <tableColumn id="3" name="None"/>
-    <tableColumn id="4" name="None"/>
-    <tableColumn id="5" name="None"/>
+    <tableColumn id="1" name="Lot"/>
+    <tableColumn id="2" name="Status"/>
+    <tableColumn id="3" name="Date&amp;Time"/>
+    <tableColumn id="4" name="BusySpaces"/>
+    <tableColumn id="5" name="FreeSpaces"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -427,14 +427,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Lot</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date&amp;Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>BusySpaces</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>FreeSpaces</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -125,8 +125,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E2" headerRowCount="1">
-  <autoFilter ref="A1:E2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E4" headerRowCount="1">
+  <autoFilter ref="A1:E4"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Lot"/>
     <tableColumn id="2" name="Status"/>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,14 +463,72 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Lot0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OCUPAT</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>04-08-2021 23:56:41</t>
+        </is>
+      </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lot1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>OCUPAT</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>04-08-2021 23:56:41</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lot2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>OCUPAT</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>04-08-2021 23:56:41</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -470,19 +470,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OCUPAT</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>04-08-2021 23:56:41</t>
-        </is>
+          <t>LIBER</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -498,14 +496,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>04-08-2021 23:56:41</t>
+          <t>04-24-2021 16:56:56</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +519,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>04-08-2021 23:56:41</t>
+          <t>04-24-2021 16:56:56</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,34 +1,181 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1\Documents\GitHub\Licenta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A13063-57C4-4018-B10F-D29C1FD1529C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+  <si>
+    <t>Lot</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Date&amp;Time</t>
+  </si>
+  <si>
+    <t>BusySpaces</t>
+  </si>
+  <si>
+    <t>FreeSpaces</t>
+  </si>
+  <si>
+    <t>Lot0</t>
+  </si>
+  <si>
+    <t>LIBER</t>
+  </si>
+  <si>
+    <t>Lot1</t>
+  </si>
+  <si>
+    <t>OCUPAT</t>
+  </si>
+  <si>
+    <t>Lot2</t>
+  </si>
+  <si>
+    <t>Lot3</t>
+  </si>
+  <si>
+    <t>Lot4</t>
+  </si>
+  <si>
+    <t>Lot5</t>
+  </si>
+  <si>
+    <t>Lot6</t>
+  </si>
+  <si>
+    <t>Lot7</t>
+  </si>
+  <si>
+    <t>Lot8</t>
+  </si>
+  <si>
+    <t>Lot9</t>
+  </si>
+  <si>
+    <t>Lot10</t>
+  </si>
+  <si>
+    <t>Lot11</t>
+  </si>
+  <si>
+    <t>Lot12</t>
+  </si>
+  <si>
+    <t>Lot13</t>
+  </si>
+  <si>
+    <t>Lot14</t>
+  </si>
+  <si>
+    <t>Lot15</t>
+  </si>
+  <si>
+    <t>Lot16</t>
+  </si>
+  <si>
+    <t>Lot17</t>
+  </si>
+  <si>
+    <t>Lot18</t>
+  </si>
+  <si>
+    <t>Lot19</t>
+  </si>
+  <si>
+    <t>04-24-2021 16:00:00</t>
+  </si>
+  <si>
+    <t>04-24-2021 17:00:00</t>
+  </si>
+  <si>
+    <t>04-24-2021 10:00:00</t>
+  </si>
+  <si>
+    <t>04-24-2021 11:00:00</t>
+  </si>
+  <si>
+    <t>04-24-2021 13:00:00</t>
+  </si>
+  <si>
+    <t>04-24-2021 14:00:00</t>
+  </si>
+  <si>
+    <t>04-24-2021 19:00:00</t>
+  </si>
+  <si>
+    <t>04-24-2021 22:00:00</t>
+  </si>
+  <si>
+    <t>04-24-2021 21:00:00</t>
+  </si>
+  <si>
+    <t>05-24-2021 08:00:00</t>
+  </si>
+  <si>
+    <t>05-24-2021 09:00:00</t>
+  </si>
+  <si>
+    <t>05-24-2021 11:00:00</t>
+  </si>
+  <si>
+    <t>05-24-2021 13:00:00</t>
+  </si>
+  <si>
+    <t>05-24-2021 16:00:00</t>
+  </si>
+  <si>
+    <t>05-24-2021 17:00:00</t>
+  </si>
+  <si>
+    <t>05-24-2021 20:00:00</t>
+  </si>
+  <si>
+    <t>05-24-2021 21:00:00</t>
+  </si>
+  <si>
+    <t>05-24-2021 21:30:00</t>
+  </si>
+  <si>
+    <t>05-24-2021 22:21:00</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,92 +194,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E4" headerRowCount="1">
-  <autoFilter ref="A1:E4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E21">
+  <autoFilter ref="A1:E21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Lot"/>
-    <tableColumn id="2" name="Status"/>
-    <tableColumn id="3" name="Date&amp;Time"/>
-    <tableColumn id="4" name="BusySpaces"/>
-    <tableColumn id="5" name="FreeSpaces"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Lot"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Status"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Date&amp;Time"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="BusySpaces"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="FreeSpaces"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -422,111 +510,376 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Lot</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Date&amp;Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>BusySpaces</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>FreeSpaces</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Lot0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>LIBER</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="n">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Lot1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>OCUPAT</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>04-24-2021 16:56:56</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Lot2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>OCUPAT</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>04-24-2021 16:56:56</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>23</v>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
